--- a/biology/Botanique/Calamagrostide_rouge/Calamagrostide_rouge.xlsx
+++ b/biology/Botanique/Calamagrostide_rouge/Calamagrostide_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamagrostis rubescens, la calamagrostide rougeâtre, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’agit d’une plante herbacée vivace qui atteint de 60 à 100 centimètres de haut. Les inflorescences sont formées d'épillets mesurant chacun environ 5 mm.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est présente dans l’ouest de l’Amérique du Nord, au Canada et aux États-Unis.
 </t>
@@ -573,9 +589,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (24 avril 2018)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 avril 2018) :
 Calamagrostis aleutica var. angusta Vasey
 Calamagrostis angusta (Vasey) Kearney
 Calamagrostis cusickii (Vasey) Vasey
